--- a/resource/TestData/AutoTestData.xlsx
+++ b/resource/TestData/AutoTestData.xlsx
@@ -157,7 +157,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,12 +166,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF0072E4"/>
+        <bgColor rgb="FF007FFE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF007FFE"/>
+        <bgColor rgb="FF0072E4"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -179,6 +185,13 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -205,7 +218,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -218,15 +231,31 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -239,6 +268,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0072E4"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF007FFE"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -250,14 +339,14 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="21.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="20.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="5" style="0" width="8.52"/>
   </cols>
@@ -272,147 +361,147 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>5765035816</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="8" t="n">
+        <v>9503333700</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>4609044688</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="8" t="n">
+        <v>9909044688</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="n">
-        <v>4940708778</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="8" t="n">
+        <v>7940708778</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="n">
-        <v>1963670369</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="8" t="n">
+        <v>9963670369</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="n">
-        <v>6620157148</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="8" t="n">
+        <v>7620157148</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="8" t="n">
         <v>8161911200</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="8" t="n">
         <v>7173898097</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="1" t="n">
-        <v>2999817496</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="8" t="n">
+        <v>8999817496</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="8" t="n">
         <v>7366614407</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="8" t="n">
         <v>9576330640</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -438,7 +527,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -463,7 +552,7 @@
       <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
